--- a/Wireless Earbuds Reviews.xlsx
+++ b/Wireless Earbuds Reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ceba4c9e644e6e6/YouTube/Share/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ceba4c9e644e6e6/YouTube/Earbuds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2637" documentId="8_{32C462A0-5FFE-4E26-81A4-9140FB4F6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4104197A-B239-4661-B52D-5921650BCA44}"/>
+  <xr:revisionPtr revIDLastSave="2653" documentId="8_{32C462A0-5FFE-4E26-81A4-9140FB4F6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0BE81C-ABE6-47AD-8A6C-213C78234722}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="7845" windowWidth="31035" windowHeight="23985" xr2:uid="{635816C2-857D-4EAE-95AA-796751DEB26C}"/>
+    <workbookView xWindow="16350" yWindow="6420" windowWidth="31035" windowHeight="23985" xr2:uid="{635816C2-857D-4EAE-95AA-796751DEB26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="21" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="EarFun Air Pro 4" sheetId="36" r:id="rId15"/>
     <sheet name="Nothing CMF Buds Pro 2" sheetId="37" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,39 +53,288 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="114">
   <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Earbud</t>
+  </si>
+  <si>
+    <t>Sound Score</t>
+  </si>
+  <si>
+    <t>Mic Score</t>
+  </si>
+  <si>
+    <t>My Cost</t>
+  </si>
+  <si>
+    <t>My Sound QC</t>
+  </si>
+  <si>
+    <t>My Mic QC</t>
+  </si>
+  <si>
+    <t>Usual Cost</t>
+  </si>
+  <si>
+    <t>Usual Sound QC</t>
+  </si>
+  <si>
+    <t>Usual Mic QC</t>
+  </si>
+  <si>
+    <t>Mic Review</t>
+  </si>
+  <si>
+    <t>Review Link (EN)</t>
+  </si>
+  <si>
+    <t>Review Link (PT)</t>
+  </si>
+  <si>
+    <t>SoundPeats Engine 4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JmYYoLVEvD4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PWNI0eVP3N0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UZQKtcEeGg8</t>
+  </si>
+  <si>
+    <t>Soundcore Liberty 3 Pro</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wSBMf8o41o4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BG9Fz0IOJT0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/11mN3KduHiE</t>
+  </si>
+  <si>
+    <t>realme Buds Air 5 Pro</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Gg2aZm3YZNo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9a4Lynl_AEk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9vrwHu7uHZM</t>
+  </si>
+  <si>
+    <t>Nothing CMF Buds Pro 2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/L3xvcN5Qk80</t>
+  </si>
+  <si>
+    <t>https://youtu.be/u5Huf04KjmA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/P9Co986Ugfw</t>
+  </si>
+  <si>
+    <t>Technics AZ60</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cRcq3tdonVY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Z8-xXW5Rq_I</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dwP26d7eTQU</t>
+  </si>
+  <si>
+    <t>EarFun Air Pro 4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/91kLw-7N3rE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/d9wF2JgkzNw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CG0eXc_AjmY</t>
+  </si>
+  <si>
+    <t>Soundcore Liberty 4 NC</t>
+  </si>
+  <si>
+    <t>https://youtu.be/K0cfS3sUFsM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5lCNIzErOSU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3hvHo_kF9mw</t>
+  </si>
+  <si>
+    <t>SoundPeats Air4 Pro</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cQ3dEKNXAkA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XqekBEyURUs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wQtQIgk5E9g</t>
+  </si>
+  <si>
+    <t>1MORE PistonBuds Pro Q30</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8C2YWBoW5TY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nE0m088qjJA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/I_CzD8Rm5cU</t>
+  </si>
+  <si>
+    <t>Edifier W240TN</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BzV6WPd1Bds</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NvhhcoLgVFs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/egX8-Eue4WY</t>
+  </si>
+  <si>
+    <t>Baseus Bowie MA10</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UaIPcv9J09U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mvDwWCCuHsM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QEvYTHcL2TM</t>
+  </si>
+  <si>
+    <t>Tozo NC9 2024</t>
+  </si>
+  <si>
+    <t>https://youtu.be/b4yzSfAEnUM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WWIDbFzHSaQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gUXGBsT4nHM</t>
+  </si>
+  <si>
+    <t>Tozo Crystal Pods</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RyEucysc0xQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hhg9MeVyvV8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BvQf3131M-c</t>
+  </si>
+  <si>
+    <t>Soundcore Liberty 4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hrjaL77REA4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xOAW-A6YjnU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SI1qichCE3M</t>
+  </si>
+  <si>
+    <t>Jabra Elite 4 Active</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BmebJI9H5tk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Zu5FmrEzIs0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pgKKPVRwt0Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
+    <t>Score (0-10)</t>
+  </si>
+  <si>
+    <t>Weighted Score</t>
+  </si>
+  <si>
+    <t>Listening Score</t>
+  </si>
+  <si>
+    <t>Critical (75%)</t>
+  </si>
+  <si>
+    <t>Sound quality</t>
+  </si>
+  <si>
+    <t>Comfort (buds + case)</t>
+  </si>
+  <si>
     <t>Volume</t>
   </si>
   <si>
+    <t>Other (25%)</t>
+  </si>
+  <si>
     <t>Battery life</t>
   </si>
   <si>
     <t>ANC</t>
   </si>
   <si>
+    <t>Eartip replacement</t>
+  </si>
+  <si>
     <t>Custom EQ</t>
   </si>
   <si>
-    <t>Eartip replacement</t>
+    <t>Control usability / range</t>
+  </si>
+  <si>
+    <t>Hi-Res codecs</t>
+  </si>
+  <si>
+    <t>Multi-Point</t>
+  </si>
+  <si>
+    <t>Gaming mode</t>
   </si>
   <si>
     <t>Control customization</t>
   </si>
   <si>
-    <t>Hi-Res codecs</t>
-  </si>
-  <si>
     <t>Fast charging</t>
   </si>
   <si>
-    <t>Gaming mode</t>
-  </si>
-  <si>
-    <t>Multi-Point</t>
-  </si>
-  <si>
     <t>Find my device</t>
   </si>
   <si>
@@ -95,304 +344,55 @@
     <t>Wireless charging</t>
   </si>
   <si>
-    <t>Score (0-10)</t>
-  </si>
-  <si>
-    <t>Comfort (buds + case)</t>
-  </si>
-  <si>
-    <t>Control usability / range</t>
+    <t>Microphone Score</t>
   </si>
   <si>
     <t>Microphone / Call quality</t>
   </si>
   <si>
-    <t>Microphone Score</t>
-  </si>
-  <si>
-    <t>Sound quality</t>
-  </si>
-  <si>
-    <t>Listening Score</t>
-  </si>
-  <si>
-    <t>Aspect</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Mono Mode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
   <si>
     <t>Listening</t>
   </si>
   <si>
-    <t>Critical (75%)</t>
-  </si>
-  <si>
-    <t>Other (25%)</t>
-  </si>
-  <si>
     <t>Microphone</t>
   </si>
   <si>
-    <t>Weighted Score</t>
+    <t>IP Rating</t>
+  </si>
+  <si>
+    <t>IPX4</t>
   </si>
   <si>
     <t>Cost per Quality</t>
   </si>
   <si>
-    <t>My Cost</t>
-  </si>
-  <si>
-    <t>Usual Cost</t>
-  </si>
-  <si>
-    <t>Mic Score</t>
-  </si>
-  <si>
-    <t>Sound Score</t>
-  </si>
-  <si>
-    <t>Earbud</t>
-  </si>
-  <si>
-    <t>SoundPeats Engine 4</t>
-  </si>
-  <si>
-    <t>Edifier W240TN</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Usual Sound QC</t>
-  </si>
-  <si>
-    <t>Usual Mic QC</t>
-  </si>
-  <si>
-    <t>My Sound QC</t>
-  </si>
-  <si>
-    <t>My Mic QC</t>
-  </si>
-  <si>
-    <t>Mono Mode</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>1MORE PistonBuds Pro Q30</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>IP Rating</t>
-  </si>
-  <si>
-    <t>IPX4</t>
-  </si>
-  <si>
     <t>IP55</t>
   </si>
   <si>
     <t>IPX5</t>
   </si>
   <si>
-    <t>https://youtu.be/nE0m088qjJA</t>
-  </si>
-  <si>
-    <t>Review Link (EN)</t>
-  </si>
-  <si>
-    <t>Review Link (PT)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/I_CzD8Rm5cU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/NvhhcoLgVFs</t>
-  </si>
-  <si>
-    <t>https://youtu.be/egX8-Eue4WY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UZQKtcEeGg8</t>
-  </si>
-  <si>
-    <t>https://youtu.be/PWNI0eVP3N0</t>
-  </si>
-  <si>
-    <t>Technics AZ60</t>
-  </si>
-  <si>
-    <t>https://youtu.be/dwP26d7eTQU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Z8-xXW5Rq_I</t>
-  </si>
-  <si>
-    <t>Mic Review</t>
-  </si>
-  <si>
-    <t>https://youtu.be/cRcq3tdonVY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/8C2YWBoW5TY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/JmYYoLVEvD4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BzV6WPd1Bds</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Soundcore Liberty 3 Pro</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wSBMf8o41o4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BG9Fz0IOJT0</t>
-  </si>
-  <si>
-    <t>https://youtu.be/11mN3KduHiE</t>
-  </si>
-  <si>
-    <t>Soundcore Liberty 4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/hrjaL77REA4</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xOAW-A6YjnU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/SI1qichCE3M</t>
-  </si>
-  <si>
     <t>IP57</t>
   </si>
   <si>
-    <t>Jabra Elite 4 Active</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BmebJI9H5tk</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Zu5FmrEzIs0</t>
-  </si>
-  <si>
-    <t>https://youtu.be/pgKKPVRwt0Y</t>
-  </si>
-  <si>
-    <t>Soundcore Liberty 4 NC</t>
-  </si>
-  <si>
-    <t>https://youtu.be/K0cfS3sUFsM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5lCNIzErOSU</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3hvHo_kF9mw</t>
-  </si>
-  <si>
     <t>IPX6</t>
   </si>
   <si>
-    <t>Baseus Bowie MA10</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UaIPcv9J09U</t>
-  </si>
-  <si>
-    <t>https://youtu.be/QEvYTHcL2TM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/mvDwWCCuHsM</t>
-  </si>
-  <si>
-    <t>SoundPeats Air4 Pro</t>
-  </si>
-  <si>
-    <t>https://youtu.be/cQ3dEKNXAkA</t>
-  </si>
-  <si>
-    <t>https://youtu.be/XqekBEyURUs</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wQtQIgk5E9g</t>
-  </si>
-  <si>
-    <t>realme Buds Air 5 Pro</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Gg2aZm3YZNo</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9vrwHu7uHZM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9a4Lynl_AEk</t>
-  </si>
-  <si>
     <t>IPX8</t>
-  </si>
-  <si>
-    <t>Tozo NC9 2024</t>
-  </si>
-  <si>
-    <t>Tozo Crystal Pods</t>
-  </si>
-  <si>
-    <t>EarFun Air Pro 4</t>
-  </si>
-  <si>
-    <t>Nothing CMF Buds Pro 2</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>https://youtu.be/b4yzSfAEnUM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RyEucysc0xQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/91kLw-7N3rE</t>
-  </si>
-  <si>
-    <t>https://youtu.be/L3xvcN5Qk80</t>
-  </si>
-  <si>
-    <t>https://youtu.be/WWIDbFzHSaQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/gUXGBsT4nHM</t>
-  </si>
-  <si>
-    <t>https://youtu.be/hhg9MeVyvV8</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BvQf3131M-c</t>
-  </si>
-  <si>
-    <t>https://youtu.be/d9wF2JgkzNw</t>
-  </si>
-  <si>
-    <t>https://youtu.be/CG0eXc_AjmY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/u5Huf04KjmA</t>
-  </si>
-  <si>
-    <t>https://youtu.be/P9Co986Ugfw</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,43 +1906,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C2" s="26">
         <f>'SoundPeats Engine 4'!$J$21</f>
@@ -1986,13 +1986,13 @@
         <v>10.4</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C3" s="26">
         <f>'Soundcore Liberty 3 Pro'!$J$21</f>
@@ -2036,13 +2036,13 @@
         <v>17.5</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="C4" s="26">
         <f>'realme Buds Air 5 Pro'!$J$21</f>
@@ -2086,13 +2086,13 @@
         <v>8.4210526315789469</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2101,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C5" s="33">
         <f>'Nothing CMF Buds Pro 2'!$J$21</f>
@@ -2136,13 +2136,13 @@
         <v>6.875</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>113</v>
+        <v>27</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C6" s="33">
         <f>'Technics AZ60'!$J$21</f>
@@ -2186,13 +2186,13 @@
         <v>32.857142857142854</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2201,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C7" s="33">
         <f>'EarFun Air Pro 4'!$J$21</f>
@@ -2236,13 +2236,13 @@
         <v>10</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>111</v>
+        <v>35</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C8" s="33">
         <f>'Soundcore Liberty 4 NC'!$J$21</f>
@@ -2286,13 +2286,13 @@
         <v>11.25</v>
       </c>
       <c r="K8" s="50" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C9" s="33">
         <f>'SoundPeats Air4 Pro'!$J$21</f>
@@ -2336,13 +2336,13 @@
         <v>10</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="L9" s="50" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2351,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" s="33">
         <f>'1MORE PistonBuds Pro Q30'!$J$21</f>
@@ -2386,13 +2386,13 @@
         <v>6.875</v>
       </c>
       <c r="K10" s="50" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L10" s="50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2401,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C11" s="33">
         <f>'Edifier W240TN'!$J$21</f>
@@ -2436,13 +2436,13 @@
         <v>13.333333333333334</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L11" s="50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2451,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C12" s="33">
         <f>'Baseus Bowie MA10'!$J$21</f>
@@ -2486,13 +2486,13 @@
         <v>4.2857142857142856</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C13" s="33">
         <f>'Tozo NC9 2024'!$J$21</f>
@@ -2536,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C14" s="33">
         <f>'Tozo Crystal Pods'!$J$21</f>
@@ -2586,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="L14" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="33">
         <f>'Soundcore Liberty 4'!$J$21</f>
@@ -2636,13 +2636,13 @@
         <v>16.666666666666668</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L15" s="50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -2651,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" s="33">
         <f>'Jabra Elite 4 Active'!$J$21</f>
@@ -2686,18 +2686,18 @@
         <v>17.142857142857142</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L16" s="50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M16" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -2887,11 +2887,23 @@
     <hyperlink ref="K9" r:id="rId28" xr:uid="{E94E9EB5-14BA-4BE8-A214-E57D5F2CB686}"/>
     <hyperlink ref="L9" r:id="rId29" xr:uid="{56113573-F9AC-4991-8720-2FAAF9BEF633}"/>
     <hyperlink ref="M9" r:id="rId30" xr:uid="{0B200221-1390-419A-AD67-23E26424B0EC}"/>
+    <hyperlink ref="K5" r:id="rId31" xr:uid="{EB27987B-A44E-4D78-849E-AE70EBD575F1}"/>
+    <hyperlink ref="L5" r:id="rId32" xr:uid="{A4951CDA-AAEE-4612-9613-CD11C0923F37}"/>
+    <hyperlink ref="M5" r:id="rId33" xr:uid="{E5BCB2A1-3206-4A27-9A0B-D8AEFCDA6216}"/>
+    <hyperlink ref="K7" r:id="rId34" xr:uid="{5E97F280-9915-4EAB-8673-32636200A675}"/>
+    <hyperlink ref="L7" r:id="rId35" xr:uid="{06200978-5DD6-484E-ABD8-3AFF681FEED6}"/>
+    <hyperlink ref="M7" r:id="rId36" xr:uid="{12D48F5A-1E1E-4965-A521-43316420C776}"/>
+    <hyperlink ref="K13" r:id="rId37" xr:uid="{B871EC08-2D20-4FA5-B5A1-0604FDE09D52}"/>
+    <hyperlink ref="L13" r:id="rId38" xr:uid="{058A27E5-4610-4A6A-8C41-68AFB42ADB32}"/>
+    <hyperlink ref="M13" r:id="rId39" xr:uid="{FC1FACDC-52FE-46F0-9E98-DB86330DA9A3}"/>
+    <hyperlink ref="K14" r:id="rId40" xr:uid="{5FEE32C4-E43E-486B-8294-43FAB04BEBAC}"/>
+    <hyperlink ref="L14" r:id="rId41" xr:uid="{62C321BF-DD0B-4137-B8BA-3A3FC84191CC}"/>
+    <hyperlink ref="M14" r:id="rId42" xr:uid="{A4110B7D-3902-4E40-94EA-935756C4F4E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2921,27 +2933,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -2958,7 +2970,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -2975,7 +2987,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -2991,10 +3003,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3011,7 +3023,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3028,7 +3040,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3045,7 +3057,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3062,7 +3074,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -3079,7 +3091,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -3096,7 +3108,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -3113,7 +3125,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -3130,7 +3142,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -3147,7 +3159,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -3164,7 +3176,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -3181,7 +3193,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -3198,7 +3210,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -3213,11 +3225,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -3240,34 +3252,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3291,10 +3303,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -3363,7 +3375,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,27 +3395,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -3420,7 +3432,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -3437,7 +3449,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -3453,10 +3465,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3473,7 +3485,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3490,7 +3502,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3507,7 +3519,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3524,7 +3536,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -3541,7 +3553,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -3558,7 +3570,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -3575,7 +3587,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -3592,7 +3604,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -3609,7 +3621,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -3626,7 +3638,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -3643,7 +3655,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -3660,7 +3672,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -3675,11 +3687,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -3702,34 +3714,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3753,10 +3765,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -3845,27 +3857,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -3882,7 +3894,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -3899,7 +3911,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -3915,10 +3927,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3935,7 +3947,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3952,7 +3964,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3969,7 +3981,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3986,7 +3998,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4003,7 +4015,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4020,7 +4032,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4037,7 +4049,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4054,7 +4066,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -4071,7 +4083,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -4088,7 +4100,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -4105,7 +4117,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -4122,7 +4134,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -4137,11 +4149,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -4164,34 +4176,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4215,10 +4227,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -4307,27 +4319,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -4344,7 +4356,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -4361,7 +4373,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -4377,10 +4389,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -4397,7 +4409,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -4414,7 +4426,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -4431,7 +4443,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -4448,7 +4460,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4465,7 +4477,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4482,7 +4494,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4499,7 +4511,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4516,7 +4528,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -4533,7 +4545,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -4550,7 +4562,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -4567,7 +4579,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -4584,7 +4596,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -4599,11 +4611,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -4626,34 +4638,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4677,10 +4689,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -4769,27 +4781,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -4806,7 +4818,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -4823,7 +4835,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -4839,10 +4851,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -4859,7 +4871,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -4876,7 +4888,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -4893,7 +4905,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -4910,7 +4922,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4927,7 +4939,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4944,7 +4956,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4961,7 +4973,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4978,7 +4990,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -4995,7 +5007,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5012,7 +5024,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5029,7 +5041,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5046,7 +5058,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5061,11 +5073,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -5088,34 +5100,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -5139,10 +5151,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -5231,27 +5243,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -5268,7 +5280,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -5285,7 +5297,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -5301,10 +5313,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -5321,7 +5333,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -5338,7 +5350,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -5355,7 +5367,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -5372,7 +5384,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -5389,7 +5401,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -5406,7 +5418,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -5423,7 +5435,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -5440,7 +5452,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -5457,7 +5469,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5474,7 +5486,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5491,7 +5503,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5508,7 +5520,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5523,11 +5535,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -5550,34 +5562,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -5601,10 +5613,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -5693,27 +5705,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -5730,7 +5742,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -5747,7 +5759,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -5763,10 +5775,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -5783,7 +5795,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -5800,7 +5812,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -5817,7 +5829,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -5834,7 +5846,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -5851,7 +5863,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -5868,7 +5880,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -5885,7 +5897,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -5902,7 +5914,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -5919,7 +5931,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5936,7 +5948,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5953,7 +5965,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5970,7 +5982,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5985,11 +5997,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6012,34 +6024,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6063,10 +6075,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -6155,27 +6167,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -6192,7 +6204,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -6209,7 +6221,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -6225,10 +6237,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -6245,7 +6257,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -6262,7 +6274,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -6279,7 +6291,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -6296,7 +6308,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -6313,7 +6325,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -6330,7 +6342,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -6347,7 +6359,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -6364,7 +6376,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -6381,7 +6393,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -6398,7 +6410,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -6415,7 +6427,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -6432,7 +6444,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -6447,11 +6459,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6474,34 +6486,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6525,10 +6537,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -6635,27 +6647,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -6672,7 +6684,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -6689,7 +6701,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -6705,10 +6717,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -6725,7 +6737,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -6742,7 +6754,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -6759,7 +6771,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -6776,7 +6788,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -6793,7 +6805,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -6810,7 +6822,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -6827,7 +6839,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -6844,7 +6856,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -6861,7 +6873,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -6878,7 +6890,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -6895,7 +6907,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -6912,7 +6924,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -6927,11 +6939,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6954,34 +6966,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7005,10 +7017,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -7122,27 +7134,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -7159,7 +7171,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -7176,7 +7188,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -7192,10 +7204,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -7212,7 +7224,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -7229,7 +7241,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -7246,7 +7258,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -7263,7 +7275,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -7280,7 +7292,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -7297,7 +7309,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -7314,7 +7326,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -7331,7 +7343,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -7348,7 +7360,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -7365,7 +7377,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -7382,7 +7394,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -7399,7 +7411,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -7414,11 +7426,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -7441,34 +7453,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7492,10 +7504,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -7584,27 +7596,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -7621,7 +7633,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -7638,7 +7650,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -7654,10 +7666,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -7674,7 +7686,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -7691,7 +7703,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -7708,7 +7720,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -7725,7 +7737,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -7742,7 +7754,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -7759,7 +7771,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -7776,7 +7788,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -7793,7 +7805,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -7810,7 +7822,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -7827,7 +7839,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -7844,7 +7856,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -7861,7 +7873,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -7876,11 +7888,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -7903,34 +7915,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7954,10 +7966,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8046,27 +8058,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -8083,7 +8095,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -8100,7 +8112,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -8116,10 +8128,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -8136,7 +8148,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -8153,7 +8165,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -8170,7 +8182,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -8187,7 +8199,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -8204,7 +8216,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -8221,7 +8233,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -8238,7 +8250,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -8255,7 +8267,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -8272,7 +8284,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -8289,7 +8301,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -8306,7 +8318,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -8323,7 +8335,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -8338,11 +8350,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -8365,34 +8377,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -8416,10 +8428,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8508,27 +8520,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -8545,7 +8557,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -8562,7 +8574,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -8578,10 +8590,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -8598,7 +8610,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -8615,7 +8627,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -8632,7 +8644,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -8649,7 +8661,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -8666,7 +8678,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -8683,7 +8695,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -8700,7 +8712,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -8717,7 +8729,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -8734,7 +8746,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -8751,7 +8763,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -8768,7 +8780,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -8785,7 +8797,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -8800,11 +8812,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -8827,34 +8839,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -8878,10 +8890,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8970,27 +8982,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -9007,7 +9019,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -9024,7 +9036,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -9040,10 +9052,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -9060,7 +9072,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -9077,7 +9089,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -9094,7 +9106,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -9111,7 +9123,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -9128,7 +9140,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -9145,7 +9157,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -9162,7 +9174,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -9179,7 +9191,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -9196,7 +9208,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -9213,7 +9225,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -9230,7 +9242,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -9247,7 +9259,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -9262,11 +9274,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -9289,34 +9301,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -9340,10 +9352,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -9432,27 +9444,27 @@
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -9469,7 +9481,7 @@
       <c r="A3" s="63"/>
       <c r="B3" s="65"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -9486,7 +9498,7 @@
       <c r="A4" s="63"/>
       <c r="B4" s="65"/>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -9502,10 +9514,10 @@
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="66" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -9522,7 +9534,7 @@
       <c r="A6" s="63"/>
       <c r="B6" s="66"/>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -9539,7 +9551,7 @@
       <c r="A7" s="63"/>
       <c r="B7" s="66"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -9556,7 +9568,7 @@
       <c r="A8" s="63"/>
       <c r="B8" s="66"/>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -9573,7 +9585,7 @@
       <c r="A9" s="63"/>
       <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -9590,7 +9602,7 @@
       <c r="A10" s="63"/>
       <c r="B10" s="66"/>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -9607,7 +9619,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="66"/>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -9624,7 +9636,7 @@
       <c r="A12" s="63"/>
       <c r="B12" s="66"/>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -9641,7 +9653,7 @@
       <c r="A13" s="63"/>
       <c r="B13" s="66"/>
       <c r="C13" s="9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -9658,7 +9670,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="66"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -9675,7 +9687,7 @@
       <c r="A15" s="63"/>
       <c r="B15" s="66"/>
       <c r="C15" s="9" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -9692,7 +9704,7 @@
       <c r="A16" s="63"/>
       <c r="B16" s="66"/>
       <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -9709,7 +9721,7 @@
       <c r="A17" s="64"/>
       <c r="B17" s="66"/>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -9724,11 +9736,11 @@
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B18" s="68"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -9751,34 +9763,34 @@
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="57" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="24" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -9802,10 +9814,10 @@
       <c r="F22" s="2"/>
       <c r="I22" s="59"/>
       <c r="J22" s="19" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">

--- a/Wireless Earbuds Reviews.xlsx
+++ b/Wireless Earbuds Reviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ceba4c9e644e6e6/YouTube/Earbuds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2653" documentId="8_{32C462A0-5FFE-4E26-81A4-9140FB4F6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0BE81C-ABE6-47AD-8A6C-213C78234722}"/>
+  <xr:revisionPtr revIDLastSave="2783" documentId="8_{32C462A0-5FFE-4E26-81A4-9140FB4F6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90BC50E9-DDE5-463C-9A61-D84254CE2CDC}"/>
   <bookViews>
-    <workbookView xWindow="16350" yWindow="6420" windowWidth="31035" windowHeight="23985" xr2:uid="{635816C2-857D-4EAE-95AA-796751DEB26C}"/>
+    <workbookView xWindow="22440" yWindow="9240" windowWidth="33885" windowHeight="16920" xr2:uid="{635816C2-857D-4EAE-95AA-796751DEB26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="21" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Tozo Crystal Pods" sheetId="35" r:id="rId14"/>
     <sheet name="EarFun Air Pro 4" sheetId="36" r:id="rId15"/>
     <sheet name="Nothing CMF Buds Pro 2" sheetId="37" r:id="rId16"/>
+    <sheet name="SoundPeats Capsule3 Pro+" sheetId="38" r:id="rId17"/>
+    <sheet name="Soundcore Liberty 4 Pro" sheetId="39" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="121">
   <si>
     <t>Ranking</t>
   </si>
@@ -272,9 +274,6 @@
     <t>https://youtu.be/pgKKPVRwt0Y</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Aspect</t>
   </si>
   <si>
@@ -393,6 +392,30 @@
   </si>
   <si>
     <t>IPX8</t>
+  </si>
+  <si>
+    <t>SoundPeats Capsule3 Pro+</t>
+  </si>
+  <si>
+    <t>Soundcore Liberty 4 Pro</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3NtF4Zs8R54</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3mDZmOzZzsQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cZ43q2olvkE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MF8IFt0xx50</t>
+  </si>
+  <si>
+    <t>https://youtu.be/o8PPoiBCWto</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tgdjnnCdx0Y</t>
   </si>
 </sst>
 </file>
@@ -754,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -826,7 +849,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,9 +901,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,9 +917,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,6 +926,7 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,7 +1199,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1195,12 +1212,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1216,7 +1227,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1224,7 +1235,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1237,12 +1248,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1258,7 +1263,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1266,7 +1271,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1279,12 +1284,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1307,7 +1306,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1320,12 +1319,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1561,10 +1554,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8D4691F-B19F-4BD4-BBBF-B85AF02AACC3}" name="Table1" displayName="Table1" ref="B1:M16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="B1:M16" xr:uid="{A8D4691F-B19F-4BD4-BBBF-B85AF02AACC3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M16">
-    <sortCondition descending="1" ref="C1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8D4691F-B19F-4BD4-BBBF-B85AF02AACC3}" name="Table1" displayName="Table1" ref="B1:M18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="B1:M18" xr:uid="{A8D4691F-B19F-4BD4-BBBF-B85AF02AACC3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M18">
+    <sortCondition descending="1" ref="C1:C18"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CF095A3A-2091-4771-BFAB-77517EDE33B9}" name="Earbud" dataDxfId="11"/>
@@ -1884,7 +1877,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,845 +1898,936 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="56">
+      <c r="A2" s="53">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="32">
+        <f>'Soundcore Liberty 4 Pro'!$J$21</f>
+        <v>8.52</v>
+      </c>
+      <c r="D2" s="33">
+        <f>'Soundcore Liberty 4 Pro'!$K$21</f>
+        <v>9.5</v>
+      </c>
+      <c r="E2" s="27">
+        <f>'Soundcore Liberty 4 Pro'!$I$23</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="28">
+        <f>'Soundcore Liberty 4 Pro'!$J$23</f>
+        <v>11.737089201877934</v>
+      </c>
+      <c r="G2" s="28">
+        <f>'Soundcore Liberty 4 Pro'!$K$23</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="H2" s="29">
+        <f>'Soundcore Liberty 4 Pro'!$I$24</f>
+        <v>130</v>
+      </c>
+      <c r="I2" s="30">
+        <f>'Soundcore Liberty 4 Pro'!$J$24</f>
+        <v>15.258215962441316</v>
+      </c>
+      <c r="J2" s="44">
+        <f>'Soundcore Liberty 4 Pro'!$K$24</f>
+        <v>13.684210526315789</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="53">
+        <f t="shared" ref="A3:A18" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="32">
+        <f>'SoundPeats Capsule3 Pro+'!$J$21</f>
+        <v>8.3600000000000012</v>
+      </c>
+      <c r="D3" s="33">
+        <f>'SoundPeats Capsule3 Pro+'!$K$21</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="27">
+        <f>'SoundPeats Capsule3 Pro+'!$I$23</f>
+        <v>75</v>
+      </c>
+      <c r="F3" s="28">
+        <f>'SoundPeats Capsule3 Pro+'!$J$23</f>
+        <v>8.9712918660287073</v>
+      </c>
+      <c r="G3" s="28">
+        <f>'SoundPeats Capsule3 Pro+'!$K$23</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H3" s="29">
+        <f>'SoundPeats Capsule3 Pro+'!$I$24</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="30">
+        <f>'SoundPeats Capsule3 Pro+'!$J$24</f>
+        <v>11.961722488038276</v>
+      </c>
+      <c r="J3" s="44">
+        <f>'SoundPeats Capsule3 Pro+'!$K$24</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C4" s="32">
         <f>'SoundPeats Engine 4'!$J$21</f>
         <v>8.2100000000000009</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D4" s="33">
         <f>'SoundPeats Engine 4'!$K$21</f>
         <v>5</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E4" s="27">
         <f>'SoundPeats Engine 4'!$I$23</f>
         <v>47</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F4" s="28">
         <f>'SoundPeats Engine 4'!$J$23</f>
         <v>5.7247259439707667</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G4" s="28">
         <f>'SoundPeats Engine 4'!$K$23</f>
         <v>9.4</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H4" s="29">
         <f>'SoundPeats Engine 4'!$I$24</f>
         <v>52</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I4" s="30">
         <f>'SoundPeats Engine 4'!$J$24</f>
         <v>6.3337393422655293</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J4" s="44">
         <f>'SoundPeats Engine 4'!$K$24</f>
         <v>10.4</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M4" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="56">
-        <f t="shared" ref="A3:A16" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C5" s="32">
         <f>'Soundcore Liberty 3 Pro'!$J$21</f>
         <v>8.1399999999999988</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D5" s="33">
         <f>'Soundcore Liberty 3 Pro'!$K$21</f>
         <v>8</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E5" s="34">
         <f>'Soundcore Liberty 3 Pro'!$I$23</f>
         <v>91</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F5" s="51">
         <f>'Soundcore Liberty 3 Pro'!$J$23</f>
         <v>11.17936117936118</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G5" s="51">
         <f>'Soundcore Liberty 3 Pro'!$K$23</f>
         <v>11.375</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H5" s="35">
         <f>'Soundcore Liberty 3 Pro'!$I$24</f>
         <v>140</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I5" s="36">
         <f>'Soundcore Liberty 3 Pro'!$J$24</f>
         <v>17.199017199017202</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J5" s="47">
         <f>'Soundcore Liberty 3 Pro'!$K$24</f>
         <v>17.5</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M5" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="56">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C6" s="32">
         <f>'realme Buds Air 5 Pro'!$J$21</f>
         <v>8.08</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D6" s="33">
         <f>'realme Buds Air 5 Pro'!$K$21</f>
         <v>9.5</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E6" s="34">
         <f>'realme Buds Air 5 Pro'!$I$23</f>
         <v>64</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F6" s="51">
         <f>'realme Buds Air 5 Pro'!$J$23</f>
         <v>7.9207920792079207</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G6" s="51">
         <f>'realme Buds Air 5 Pro'!$K$23</f>
         <v>6.7368421052631575</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H6" s="35">
         <f>'realme Buds Air 5 Pro'!$I$24</f>
         <v>80</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I6" s="36">
         <f>'realme Buds Air 5 Pro'!$J$24</f>
         <v>9.9009900990099009</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J6" s="47">
         <f>'realme Buds Air 5 Pro'!$K$24</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M6" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="56">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C7" s="32">
         <f>'Nothing CMF Buds Pro 2'!$J$21</f>
         <v>7.9299999999999988</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D7" s="33">
         <f>'Nothing CMF Buds Pro 2'!$K$21</f>
         <v>8</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E7" s="34">
         <f>'Nothing CMF Buds Pro 2'!$I$23</f>
         <v>49</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F7" s="51">
         <f>'Nothing CMF Buds Pro 2'!$J$23</f>
         <v>6.1790668348045408</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G7" s="51">
         <f>'Nothing CMF Buds Pro 2'!$K$23</f>
         <v>6.125</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H7" s="35">
         <f>'Nothing CMF Buds Pro 2'!$I$24</f>
         <v>55</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I7" s="36">
         <f>'Nothing CMF Buds Pro 2'!$J$24</f>
         <v>6.9356872635561171</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J7" s="47">
         <f>'Nothing CMF Buds Pro 2'!$K$24</f>
         <v>6.875</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M7" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C8" s="32">
         <f>'Technics AZ60'!$J$21</f>
         <v>7.7799999999999994</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D8" s="33">
         <f>'Technics AZ60'!$K$21</f>
         <v>7</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E8" s="34">
         <f>'Technics AZ60'!$I$23</f>
         <v>132</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F8" s="51">
         <f>'Technics AZ60'!$J$23</f>
         <v>16.966580976863753</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G8" s="51">
         <f>'Technics AZ60'!$K$23</f>
         <v>18.857142857142858</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H8" s="35">
         <f>'Technics AZ60'!$I$24</f>
         <v>230</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I8" s="36">
         <f>'Technics AZ60'!$J$24</f>
         <v>29.562982005141389</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J8" s="47">
         <f>'Technics AZ60'!$K$24</f>
         <v>32.857142857142854</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K8" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M8" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="56">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C9" s="32">
         <f>'EarFun Air Pro 4'!$J$21</f>
         <v>7.6300000000000008</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D9" s="33">
         <f>'EarFun Air Pro 4'!$K$21</f>
         <v>8</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E9" s="34">
         <f>'EarFun Air Pro 4'!$I$23</f>
         <v>68</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F9" s="51">
         <f>'EarFun Air Pro 4'!$J$23</f>
         <v>8.912188728702489</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G9" s="51">
         <f>'EarFun Air Pro 4'!$K$23</f>
         <v>8.5</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H9" s="35">
         <f>'EarFun Air Pro 4'!$I$24</f>
         <v>80</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I9" s="36">
         <f>'EarFun Air Pro 4'!$J$24</f>
         <v>10.484927916120576</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J9" s="47">
         <f>'EarFun Air Pro 4'!$K$24</f>
         <v>10</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M9" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C10" s="32">
         <f>'Soundcore Liberty 4 NC'!$J$21</f>
         <v>7.4399999999999986</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D10" s="33">
         <f>'Soundcore Liberty 4 NC'!$K$21</f>
         <v>8</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E10" s="34">
         <f>'Soundcore Liberty 4 NC'!$I$23</f>
         <v>65</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F10" s="51">
         <f>'Soundcore Liberty 4 NC'!$J$23</f>
         <v>8.7365591397849478</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G10" s="51">
         <f>'Soundcore Liberty 4 NC'!$K$23</f>
         <v>8.125</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H10" s="35">
         <f>'Soundcore Liberty 4 NC'!$I$24</f>
         <v>90</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I10" s="36">
         <f>'Soundcore Liberty 4 NC'!$J$24</f>
         <v>12.09677419354839</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J10" s="47">
         <f>'Soundcore Liberty 4 NC'!$K$24</f>
         <v>11.25</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L10" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M10" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="56">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C11" s="32">
         <f>'SoundPeats Air4 Pro'!$J$21</f>
         <v>7.17</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D11" s="33">
         <f>'SoundPeats Air4 Pro'!$K$21</f>
         <v>6</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E11" s="34">
         <f>'SoundPeats Air4 Pro'!$I$23</f>
         <v>52</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F11" s="51">
         <f>'SoundPeats Air4 Pro'!$J$23</f>
         <v>7.2524407252440728</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G11" s="51">
         <f>'SoundPeats Air4 Pro'!$K$23</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H11" s="35">
         <f>'SoundPeats Air4 Pro'!$I$24</f>
         <v>60</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I11" s="36">
         <f>'SoundPeats Air4 Pro'!$J$24</f>
         <v>8.3682008368200833</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J11" s="47">
         <f>'SoundPeats Air4 Pro'!$K$24</f>
         <v>10</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="53">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C12" s="32">
         <f>'1MORE PistonBuds Pro Q30'!$J$21</f>
         <v>7.0300000000000011</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D12" s="33">
         <f>'1MORE PistonBuds Pro Q30'!$K$21</f>
         <v>8</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E12" s="34">
         <f>'1MORE PistonBuds Pro Q30'!$I$23</f>
         <v>40</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F12" s="51">
         <f>'1MORE PistonBuds Pro Q30'!$J$23</f>
         <v>5.6899004267425308</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G12" s="51">
         <f>'1MORE PistonBuds Pro Q30'!$K$23</f>
         <v>5</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H12" s="35">
         <f>'1MORE PistonBuds Pro Q30'!$I$24</f>
         <v>55</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I12" s="36">
         <f>'1MORE PistonBuds Pro Q30'!$J$24</f>
         <v>7.8236130867709806</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J12" s="47">
         <f>'1MORE PistonBuds Pro Q30'!$K$24</f>
         <v>6.875</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K12" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L12" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M12" s="46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="56">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="32" t="s">
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C13" s="32">
         <f>'Edifier W240TN'!$J$21</f>
         <v>6.9099999999999993</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D13" s="33">
         <f>'Edifier W240TN'!$K$21</f>
         <v>6</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E13" s="34">
         <f>'Edifier W240TN'!$I$23</f>
         <v>51</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F13" s="51">
         <f>'Edifier W240TN'!$J$23</f>
         <v>7.3806078147612162</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G13" s="51">
         <f>'Edifier W240TN'!$K$23</f>
         <v>8.5</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H13" s="35">
         <f>'Edifier W240TN'!$I$24</f>
         <v>80</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I13" s="36">
         <f>'Edifier W240TN'!$J$24</f>
         <v>11.577424023154849</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J13" s="47">
         <f>'Edifier W240TN'!$K$24</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L13" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M13" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="56">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="53">
+        <f>ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C14" s="25">
         <f>'Baseus Bowie MA10'!$J$21</f>
         <v>6.8900000000000006</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D14" s="26">
         <f>'Baseus Bowie MA10'!$K$21</f>
         <v>7</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E14" s="27">
         <f>'Baseus Bowie MA10'!$I$23</f>
         <v>25</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F14" s="28">
         <f>'Baseus Bowie MA10'!$J$23</f>
         <v>3.6284470246734393</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G14" s="28">
         <f>'Baseus Bowie MA10'!$K$23</f>
         <v>3.5714285714285716</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H14" s="29">
         <f>'Baseus Bowie MA10'!$I$24</f>
         <v>30</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I14" s="30">
         <f>'Baseus Bowie MA10'!$J$24</f>
         <v>4.3541364296081273</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J14" s="44">
         <f>'Baseus Bowie MA10'!$K$24</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L14" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M14" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="56">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="s">
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C15" s="32">
         <f>'Tozo NC9 2024'!$J$21</f>
         <v>6.8500000000000005</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D15" s="33">
         <f>'Tozo NC9 2024'!$K$21</f>
         <v>5</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E15" s="34">
         <f>'Tozo NC9 2024'!$I$23</f>
         <v>34</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F15" s="51">
         <f>'Tozo NC9 2024'!$J$23</f>
         <v>4.9635036496350358</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G15" s="51">
         <f>'Tozo NC9 2024'!$K$23</f>
         <v>6.8</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H15" s="35">
         <f>'Tozo NC9 2024'!$I$24</f>
         <v>40</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I15" s="36">
         <f>'Tozo NC9 2024'!$J$24</f>
         <v>5.8394160583941606</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J15" s="47">
         <f>'Tozo NC9 2024'!$K$24</f>
         <v>8</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K15" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M15" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C16" s="32">
         <f>'Tozo Crystal Pods'!$J$21</f>
         <v>6.77</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D16" s="33">
         <f>'Tozo Crystal Pods'!$K$21</f>
         <v>6</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E16" s="34">
         <f>'Tozo Crystal Pods'!$I$23</f>
         <v>25</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F16" s="51">
         <f>'Tozo Crystal Pods'!$J$23</f>
         <v>3.6927621861152145</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G16" s="51">
         <f>'Tozo Crystal Pods'!$K$23</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H16" s="35">
         <f>'Tozo Crystal Pods'!$I$24</f>
         <v>30</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I16" s="36">
         <f>'Tozo Crystal Pods'!$J$24</f>
         <v>4.431314623338257</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J16" s="47">
         <f>'Tozo Crystal Pods'!$K$24</f>
         <v>5</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L16" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="M16" s="48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="56">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="32" t="s">
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C17" s="32">
         <f>'Soundcore Liberty 4'!$J$21</f>
         <v>6.54</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D17" s="33">
         <f>'Soundcore Liberty 4'!$K$21</f>
         <v>9</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E17" s="34">
         <f>'Soundcore Liberty 4'!$I$23</f>
         <v>91</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F17" s="51">
         <f>'Soundcore Liberty 4'!$J$23</f>
         <v>13.914373088685016</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G17" s="51">
         <f>'Soundcore Liberty 4'!$K$23</f>
         <v>10.111111111111111</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H17" s="35">
         <f>'Soundcore Liberty 4'!$I$24</f>
         <v>150</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I17" s="36">
         <f>'Soundcore Liberty 4'!$J$24</f>
         <v>22.935779816513762</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J17" s="47">
         <f>'Soundcore Liberty 4'!$K$24</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K17" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M17" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="56">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="32" t="s">
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C18" s="32">
         <f>'Jabra Elite 4 Active'!$J$21</f>
         <v>6.29</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D18" s="33">
         <f>'Jabra Elite 4 Active'!$K$21</f>
         <v>7</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E18" s="34">
         <f>'Jabra Elite 4 Active'!$I$23</f>
         <v>65</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F18" s="51">
         <f>'Jabra Elite 4 Active'!$J$23</f>
         <v>10.333863275039745</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G18" s="51">
         <f>'Jabra Elite 4 Active'!$K$23</f>
         <v>9.2857142857142865</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H18" s="35">
         <f>'Jabra Elite 4 Active'!$I$24</f>
         <v>120</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I18" s="36">
         <f>'Jabra Elite 4 Active'!$J$24</f>
         <v>19.077901430842608</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J18" s="47">
         <f>'Jabra Elite 4 Active'!$K$24</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K18" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M18" s="49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
@@ -2857,53 +2941,59 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{51F59870-D637-4F79-AB89-80C44A75A8DB}"/>
-    <hyperlink ref="M11" r:id="rId2" xr:uid="{DA4BB316-D860-4574-BFC0-EBD40B371082}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{13390E24-7C14-4125-86C3-DD7229D93049}"/>
-    <hyperlink ref="M6" r:id="rId4" xr:uid="{B769A61A-3829-4EE4-8F82-4989BB8E968B}"/>
-    <hyperlink ref="L10" r:id="rId5" xr:uid="{F0AB26CB-D7D1-42B8-858E-D585C31A595D}"/>
-    <hyperlink ref="L11" r:id="rId6" xr:uid="{31CC0E78-76B8-4ACA-8F0A-3FEC0DBC8478}"/>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{2000BDBA-11F0-47F4-BC96-334B532CF2A2}"/>
-    <hyperlink ref="L6" r:id="rId8" xr:uid="{309D7547-30EB-40A4-B5CC-09242CC65936}"/>
-    <hyperlink ref="K6" r:id="rId9" xr:uid="{56E018B6-88EE-4E36-A19F-FFF160921828}"/>
-    <hyperlink ref="K10" r:id="rId10" xr:uid="{84FD373A-408F-4B60-A5B8-4E09ACB9EC63}"/>
-    <hyperlink ref="K2" r:id="rId11" xr:uid="{385722EC-95EB-4834-97B8-F6C3697B547E}"/>
-    <hyperlink ref="K11" r:id="rId12" xr:uid="{EFE4A1D4-EB14-4F85-821F-81C0A093C27F}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{9A28E018-B062-4B24-8FCB-BAFA9452B522}"/>
-    <hyperlink ref="L3" r:id="rId14" xr:uid="{B0F11D38-740B-4B41-A4EC-E9AEC616DA7A}"/>
-    <hyperlink ref="M3" r:id="rId15" xr:uid="{AEE8B929-1D5F-4BB9-9DE7-06C912022149}"/>
-    <hyperlink ref="K15" r:id="rId16" xr:uid="{9F5980C5-788A-46E0-83D3-5BE81A2E3773}"/>
-    <hyperlink ref="L15" r:id="rId17" xr:uid="{FCFDD594-2789-4C47-BE85-28B427F8E3D2}"/>
-    <hyperlink ref="M15" r:id="rId18" xr:uid="{FBBC6CCF-CD59-4063-AF92-555DE8A6169F}"/>
-    <hyperlink ref="K16" r:id="rId19" xr:uid="{2F98DA53-FF5A-4227-9957-BD426BE6A904}"/>
-    <hyperlink ref="L16" r:id="rId20" xr:uid="{C108E287-BDCE-408C-88C2-812A732C6B02}"/>
-    <hyperlink ref="M16" r:id="rId21" xr:uid="{62FF2B89-6F4D-4C08-8320-41F6021ADBF4}"/>
-    <hyperlink ref="K8" r:id="rId22" xr:uid="{FB9618C9-5142-4893-B581-1CC19D996FFC}"/>
-    <hyperlink ref="L8" r:id="rId23" xr:uid="{870A12BB-0699-4924-B750-98AAAB0BDD59}"/>
-    <hyperlink ref="M8" r:id="rId24" xr:uid="{0E6F2A07-8A59-46E9-B6C0-F937EFA60B11}"/>
-    <hyperlink ref="K12" r:id="rId25" xr:uid="{8C14846A-90D3-4499-B9AE-78AE607C329D}"/>
-    <hyperlink ref="M12" r:id="rId26" xr:uid="{66C97693-BDF5-4836-878F-ACC14D8E3C48}"/>
-    <hyperlink ref="L12" r:id="rId27" xr:uid="{5AA867FD-38F3-44FE-99B0-C2507CCC3A8B}"/>
-    <hyperlink ref="K9" r:id="rId28" xr:uid="{E94E9EB5-14BA-4BE8-A214-E57D5F2CB686}"/>
-    <hyperlink ref="L9" r:id="rId29" xr:uid="{56113573-F9AC-4991-8720-2FAAF9BEF633}"/>
-    <hyperlink ref="M9" r:id="rId30" xr:uid="{0B200221-1390-419A-AD67-23E26424B0EC}"/>
-    <hyperlink ref="K5" r:id="rId31" xr:uid="{EB27987B-A44E-4D78-849E-AE70EBD575F1}"/>
-    <hyperlink ref="L5" r:id="rId32" xr:uid="{A4951CDA-AAEE-4612-9613-CD11C0923F37}"/>
-    <hyperlink ref="M5" r:id="rId33" xr:uid="{E5BCB2A1-3206-4A27-9A0B-D8AEFCDA6216}"/>
-    <hyperlink ref="K7" r:id="rId34" xr:uid="{5E97F280-9915-4EAB-8673-32636200A675}"/>
-    <hyperlink ref="L7" r:id="rId35" xr:uid="{06200978-5DD6-484E-ABD8-3AFF681FEED6}"/>
-    <hyperlink ref="M7" r:id="rId36" xr:uid="{12D48F5A-1E1E-4965-A521-43316420C776}"/>
-    <hyperlink ref="K13" r:id="rId37" xr:uid="{B871EC08-2D20-4FA5-B5A1-0604FDE09D52}"/>
-    <hyperlink ref="L13" r:id="rId38" xr:uid="{058A27E5-4610-4A6A-8C41-68AFB42ADB32}"/>
-    <hyperlink ref="M13" r:id="rId39" xr:uid="{FC1FACDC-52FE-46F0-9E98-DB86330DA9A3}"/>
-    <hyperlink ref="K14" r:id="rId40" xr:uid="{5FEE32C4-E43E-486B-8294-43FAB04BEBAC}"/>
-    <hyperlink ref="L14" r:id="rId41" xr:uid="{62C321BF-DD0B-4137-B8BA-3A3FC84191CC}"/>
-    <hyperlink ref="M14" r:id="rId42" xr:uid="{A4110B7D-3902-4E40-94EA-935756C4F4E4}"/>
+    <hyperlink ref="M12" r:id="rId1" xr:uid="{51F59870-D637-4F79-AB89-80C44A75A8DB}"/>
+    <hyperlink ref="M13" r:id="rId2" xr:uid="{DA4BB316-D860-4574-BFC0-EBD40B371082}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{13390E24-7C14-4125-86C3-DD7229D93049}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{B769A61A-3829-4EE4-8F82-4989BB8E968B}"/>
+    <hyperlink ref="L12" r:id="rId5" xr:uid="{F0AB26CB-D7D1-42B8-858E-D585C31A595D}"/>
+    <hyperlink ref="L13" r:id="rId6" xr:uid="{31CC0E78-76B8-4ACA-8F0A-3FEC0DBC8478}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{2000BDBA-11F0-47F4-BC96-334B532CF2A2}"/>
+    <hyperlink ref="L8" r:id="rId8" xr:uid="{309D7547-30EB-40A4-B5CC-09242CC65936}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{56E018B6-88EE-4E36-A19F-FFF160921828}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{84FD373A-408F-4B60-A5B8-4E09ACB9EC63}"/>
+    <hyperlink ref="K4" r:id="rId11" xr:uid="{385722EC-95EB-4834-97B8-F6C3697B547E}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{EFE4A1D4-EB14-4F85-821F-81C0A093C27F}"/>
+    <hyperlink ref="K5" r:id="rId13" xr:uid="{9A28E018-B062-4B24-8FCB-BAFA9452B522}"/>
+    <hyperlink ref="L5" r:id="rId14" xr:uid="{B0F11D38-740B-4B41-A4EC-E9AEC616DA7A}"/>
+    <hyperlink ref="M5" r:id="rId15" xr:uid="{AEE8B929-1D5F-4BB9-9DE7-06C912022149}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{9F5980C5-788A-46E0-83D3-5BE81A2E3773}"/>
+    <hyperlink ref="L17" r:id="rId17" xr:uid="{FCFDD594-2789-4C47-BE85-28B427F8E3D2}"/>
+    <hyperlink ref="M17" r:id="rId18" xr:uid="{FBBC6CCF-CD59-4063-AF92-555DE8A6169F}"/>
+    <hyperlink ref="K18" r:id="rId19" xr:uid="{2F98DA53-FF5A-4227-9957-BD426BE6A904}"/>
+    <hyperlink ref="L18" r:id="rId20" xr:uid="{C108E287-BDCE-408C-88C2-812A732C6B02}"/>
+    <hyperlink ref="M18" r:id="rId21" xr:uid="{62FF2B89-6F4D-4C08-8320-41F6021ADBF4}"/>
+    <hyperlink ref="K10" r:id="rId22" xr:uid="{FB9618C9-5142-4893-B581-1CC19D996FFC}"/>
+    <hyperlink ref="L10" r:id="rId23" xr:uid="{870A12BB-0699-4924-B750-98AAAB0BDD59}"/>
+    <hyperlink ref="M10" r:id="rId24" xr:uid="{0E6F2A07-8A59-46E9-B6C0-F937EFA60B11}"/>
+    <hyperlink ref="K14" r:id="rId25" xr:uid="{8C14846A-90D3-4499-B9AE-78AE607C329D}"/>
+    <hyperlink ref="M14" r:id="rId26" xr:uid="{66C97693-BDF5-4836-878F-ACC14D8E3C48}"/>
+    <hyperlink ref="L14" r:id="rId27" xr:uid="{5AA867FD-38F3-44FE-99B0-C2507CCC3A8B}"/>
+    <hyperlink ref="K11" r:id="rId28" xr:uid="{E94E9EB5-14BA-4BE8-A214-E57D5F2CB686}"/>
+    <hyperlink ref="L11" r:id="rId29" xr:uid="{56113573-F9AC-4991-8720-2FAAF9BEF633}"/>
+    <hyperlink ref="M11" r:id="rId30" xr:uid="{0B200221-1390-419A-AD67-23E26424B0EC}"/>
+    <hyperlink ref="K7" r:id="rId31" xr:uid="{EB27987B-A44E-4D78-849E-AE70EBD575F1}"/>
+    <hyperlink ref="L7" r:id="rId32" xr:uid="{A4951CDA-AAEE-4612-9613-CD11C0923F37}"/>
+    <hyperlink ref="M7" r:id="rId33" xr:uid="{E5BCB2A1-3206-4A27-9A0B-D8AEFCDA6216}"/>
+    <hyperlink ref="K9" r:id="rId34" xr:uid="{5E97F280-9915-4EAB-8673-32636200A675}"/>
+    <hyperlink ref="L9" r:id="rId35" xr:uid="{06200978-5DD6-484E-ABD8-3AFF681FEED6}"/>
+    <hyperlink ref="M9" r:id="rId36" xr:uid="{12D48F5A-1E1E-4965-A521-43316420C776}"/>
+    <hyperlink ref="K15" r:id="rId37" xr:uid="{B871EC08-2D20-4FA5-B5A1-0604FDE09D52}"/>
+    <hyperlink ref="L15" r:id="rId38" xr:uid="{058A27E5-4610-4A6A-8C41-68AFB42ADB32}"/>
+    <hyperlink ref="M15" r:id="rId39" xr:uid="{FC1FACDC-52FE-46F0-9E98-DB86330DA9A3}"/>
+    <hyperlink ref="K16" r:id="rId40" xr:uid="{5FEE32C4-E43E-486B-8294-43FAB04BEBAC}"/>
+    <hyperlink ref="L16" r:id="rId41" xr:uid="{62C321BF-DD0B-4137-B8BA-3A3FC84191CC}"/>
+    <hyperlink ref="M16" r:id="rId42" xr:uid="{A4110B7D-3902-4E40-94EA-935756C4F4E4}"/>
+    <hyperlink ref="K2" r:id="rId43" xr:uid="{D317DC7F-F31A-44CE-A1E1-74DE7AB69A64}"/>
+    <hyperlink ref="K3" r:id="rId44" xr:uid="{C71C3F0F-2162-489D-B77A-726F426A692D}"/>
+    <hyperlink ref="L2" r:id="rId45" xr:uid="{AC9728B2-3AA4-4E61-B421-C2A430090A4B}"/>
+    <hyperlink ref="L3" r:id="rId46" xr:uid="{12FDD23A-C0CA-42FB-BD1D-DA92B49A1736}"/>
+    <hyperlink ref="M2" r:id="rId47" xr:uid="{507052E1-D921-423B-8243-6C584E2F82A6}"/>
+    <hyperlink ref="M3" r:id="rId48" xr:uid="{96FF982F-C366-4D1E-92C8-9F2B1A685F84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2913,7 +3003,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,30 +3020,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -2967,10 +3057,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -2984,10 +3074,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -3001,12 +3091,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3020,10 +3110,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3037,10 +3127,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3054,10 +3144,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3071,10 +3161,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -3088,10 +3178,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -3105,10 +3195,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -3122,10 +3212,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -3139,10 +3229,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -3156,10 +3246,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -3173,10 +3263,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -3190,10 +3280,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -3207,10 +3297,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -3224,12 +3314,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -3251,40 +3341,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.8900000000000006</v>
@@ -3301,12 +3391,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -3392,30 +3482,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -3429,10 +3519,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -3446,10 +3536,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -3463,12 +3553,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3482,10 +3572,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3499,10 +3589,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3516,10 +3606,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3533,10 +3623,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -3550,10 +3640,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -3567,10 +3657,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -3584,10 +3674,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -3601,10 +3691,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -3618,10 +3708,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -3635,10 +3725,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -3652,10 +3742,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -3669,10 +3759,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -3686,12 +3776,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -3713,40 +3803,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.17</v>
@@ -3763,12 +3853,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -3837,7 +3927,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,30 +3944,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -3891,10 +3981,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -3908,10 +3998,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -3925,12 +4015,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -3944,10 +4034,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -3961,10 +4051,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -3978,10 +4068,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -3995,10 +4085,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4012,10 +4102,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4029,10 +4119,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4046,10 +4136,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4063,10 +4153,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -4080,10 +4170,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -4097,10 +4187,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -4114,10 +4204,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -4131,10 +4221,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -4148,12 +4238,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -4175,40 +4265,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>110</v>
+      <c r="C20" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>8.08</v>
@@ -4225,12 +4315,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -4316,30 +4406,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -4353,10 +4443,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -4370,10 +4460,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -4387,12 +4477,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -4406,10 +4496,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -4423,10 +4513,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -4440,10 +4530,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -4457,10 +4547,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4474,10 +4564,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4491,10 +4581,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4508,10 +4598,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4525,10 +4615,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -4542,10 +4632,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -4559,10 +4649,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -4576,10 +4666,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -4593,10 +4683,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -4610,12 +4700,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -4637,40 +4727,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.8500000000000005</v>
@@ -4687,12 +4777,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -4778,30 +4868,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -4815,10 +4905,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -4832,10 +4922,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -4849,12 +4939,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -4868,10 +4958,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -4885,10 +4975,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -4902,10 +4992,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -4919,10 +5009,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -4936,10 +5026,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -4953,10 +5043,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -4970,10 +5060,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -4987,10 +5077,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -5004,10 +5094,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5021,10 +5111,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5038,10 +5128,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5055,10 +5145,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5072,12 +5162,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -5099,40 +5189,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.77</v>
@@ -5149,12 +5239,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -5223,7 +5313,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K24"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,30 +5330,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -5277,10 +5367,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -5294,10 +5384,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -5311,12 +5401,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -5330,10 +5420,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -5347,10 +5437,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -5364,10 +5454,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -5381,10 +5471,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -5398,10 +5488,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -5415,10 +5505,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -5432,10 +5522,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -5449,10 +5539,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -5466,10 +5556,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5483,10 +5573,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5500,10 +5590,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5517,10 +5607,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5534,12 +5624,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -5561,40 +5651,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.6300000000000008</v>
@@ -5611,12 +5701,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -5685,7 +5775,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K24"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,30 +5792,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -5739,10 +5829,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -5756,10 +5846,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -5773,12 +5863,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -5792,10 +5882,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -5809,10 +5899,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -5826,10 +5916,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -5843,10 +5933,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -5860,10 +5950,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -5877,10 +5967,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -5894,10 +5984,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -5911,10 +6001,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -5928,10 +6018,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -5945,10 +6035,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -5962,10 +6052,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -5979,10 +6069,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -5996,12 +6086,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6023,40 +6113,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>110</v>
+      <c r="C20" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.9299999999999988</v>
@@ -6073,12 +6163,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -6117,6 +6207,928 @@
       <c r="K24" s="16">
         <f>I24/K21</f>
         <v>6.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C09A91-A778-4A40-BA70-E37550C35DF3}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="11" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F2" s="7">
+        <f>D2*E2</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="9">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="9">
+        <v>9</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="23">
+        <f>SUM(F2:F17)</f>
+        <v>8.3600000000000012</v>
+      </c>
+      <c r="K21" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="I23" s="17">
+        <v>75</v>
+      </c>
+      <c r="J23" s="13">
+        <f>I23/J21</f>
+        <v>8.9712918660287073</v>
+      </c>
+      <c r="K23" s="14">
+        <f>I23/K21</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="I24" s="18">
+        <v>100</v>
+      </c>
+      <c r="J24" s="15">
+        <f>I24/J21</f>
+        <v>11.961722488038276</v>
+      </c>
+      <c r="K24" s="16">
+        <f>I24/K21</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03963AB3-CF43-42C6-8DB5-AF1CDE25B509}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="11" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
+        <f>D2*E2</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="9">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E10" s="9">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E13" s="9">
+        <v>9</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="9">
+        <v>8</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="23">
+        <f>SUM(F2:F17)</f>
+        <v>8.52</v>
+      </c>
+      <c r="K21" s="22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="I23" s="17">
+        <v>100</v>
+      </c>
+      <c r="J23" s="13">
+        <f>I23/J21</f>
+        <v>11.737089201877934</v>
+      </c>
+      <c r="K23" s="14">
+        <f>I23/K21</f>
+        <v>10.526315789473685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="I24" s="18">
+        <v>130</v>
+      </c>
+      <c r="J24" s="15">
+        <f>I24/J21</f>
+        <v>15.258215962441316</v>
+      </c>
+      <c r="K24" s="16">
+        <f>I24/K21</f>
+        <v>13.684210526315789</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6164,30 +7176,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -6201,10 +7213,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -6218,10 +7230,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -6235,12 +7247,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -6254,10 +7266,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -6271,10 +7283,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -6288,10 +7300,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -6305,10 +7317,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -6322,10 +7334,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -6339,10 +7351,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -6356,10 +7368,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -6373,10 +7385,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -6390,10 +7402,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -6407,10 +7419,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -6424,10 +7436,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -6441,10 +7453,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -6458,12 +7470,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6485,40 +7497,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>8.2100000000000009</v>
@@ -6535,12 +7547,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -6644,30 +7656,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -6681,10 +7693,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -6698,10 +7710,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -6715,12 +7727,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -6734,10 +7746,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -6751,10 +7763,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -6768,10 +7780,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -6785,10 +7797,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -6802,10 +7814,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -6819,10 +7831,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -6836,10 +7848,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -6853,10 +7865,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -6870,10 +7882,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -6887,10 +7899,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -6904,10 +7916,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -6921,10 +7933,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -6938,12 +7950,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -6965,40 +7977,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.9099999999999993</v>
@@ -7015,12 +8027,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -7131,30 +8143,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -7168,10 +8180,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -7185,10 +8197,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -7202,12 +8214,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -7221,10 +8233,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -7238,10 +8250,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -7255,10 +8267,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -7272,10 +8284,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -7289,10 +8301,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -7306,10 +8318,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -7323,10 +8335,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -7340,10 +8352,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -7357,10 +8369,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -7374,10 +8386,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -7391,10 +8403,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -7408,10 +8420,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -7425,12 +8437,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -7452,40 +8464,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.0300000000000011</v>
@@ -7502,12 +8514,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -7593,30 +8605,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -7630,10 +8642,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -7647,10 +8659,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -7664,12 +8676,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -7683,10 +8695,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -7700,10 +8712,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -7717,10 +8729,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -7734,10 +8746,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -7751,10 +8763,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -7768,10 +8780,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -7785,10 +8797,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -7802,10 +8814,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -7819,10 +8831,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -7836,10 +8848,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -7853,10 +8865,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -7870,10 +8882,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -7887,12 +8899,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -7914,40 +8926,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.7799999999999994</v>
@@ -7964,12 +8976,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8055,30 +9067,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -8092,10 +9104,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -8109,10 +9121,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -8126,12 +9138,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -8145,10 +9157,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -8162,10 +9174,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -8179,10 +9191,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -8196,10 +9208,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -8213,10 +9225,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -8230,10 +9242,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -8247,10 +9259,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -8264,10 +9276,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -8281,10 +9293,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -8298,10 +9310,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -8315,10 +9327,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -8332,10 +9344,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -8349,12 +9361,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -8376,40 +9388,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>110</v>
+      <c r="C20" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>8.1399999999999988</v>
@@ -8426,12 +9438,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8517,30 +9529,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -8554,10 +9566,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -8571,10 +9583,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -8588,12 +9600,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -8607,10 +9619,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -8624,10 +9636,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -8641,10 +9653,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -8658,10 +9670,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -8675,10 +9687,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -8692,10 +9704,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -8709,10 +9721,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -8726,10 +9738,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -8743,10 +9755,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -8760,10 +9772,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -8777,10 +9789,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -8794,10 +9806,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -8811,12 +9823,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -8838,40 +9850,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>110</v>
+      <c r="C20" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.54</v>
@@ -8888,12 +9900,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -8979,30 +9991,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -9016,10 +10028,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -9033,10 +10045,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -9050,12 +10062,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -9069,10 +10081,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -9086,10 +10098,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -9103,10 +10115,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -9120,10 +10132,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -9137,10 +10149,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -9154,10 +10166,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -9171,10 +10183,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -9188,10 +10200,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -9205,10 +10217,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -9222,10 +10234,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -9239,10 +10251,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -9256,10 +10268,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -9273,12 +10285,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -9300,40 +10312,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="C21" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>6.29</v>
@@ -9350,12 +10362,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -9441,30 +10453,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="8">
         <v>0.5</v>
@@ -9478,10 +10490,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8">
         <v>0.15</v>
@@ -9495,10 +10507,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0.1</v>
@@ -9512,12 +10524,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>0.04</v>
@@ -9531,10 +10543,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="10">
         <v>0.03</v>
@@ -9548,10 +10560,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10">
         <v>0.03</v>
@@ -9565,10 +10577,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="10">
         <v>0.02</v>
@@ -9582,10 +10594,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>0.02</v>
@@ -9599,10 +10611,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>0.02</v>
@@ -9616,10 +10628,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="10">
         <v>0.02</v>
@@ -9633,10 +10645,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="10">
         <v>0.02</v>
@@ -9650,10 +10662,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="10">
         <v>0.01</v>
@@ -9667,10 +10679,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="10">
         <v>0.01</v>
@@ -9684,10 +10696,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="10">
         <v>0.01</v>
@@ -9701,10 +10713,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="10">
         <v>0.01</v>
@@ -9718,10 +10730,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="10">
         <v>0.01</v>
@@ -9735,12 +10747,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -9762,40 +10774,40 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>110</v>
+      <c r="C20" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="23">
         <f>SUM(F2:F17)</f>
         <v>7.4399999999999986</v>
@@ -9812,12 +10824,12 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
